--- a/customers.xlsx
+++ b/customers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdvalim\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdvalim\data-science\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>my name is claudio</t>
+  </si>
+  <si>
+    <t>my second line</t>
   </si>
 </sst>
 </file>
@@ -344,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -357,6 +360,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdvalim\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdvalim\data-science\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>my name is claudio</t>
+  </si>
+  <si>
+    <t>asdghasdhg</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>sah</t>
+  </si>
+  <si>
+    <t>sahd</t>
+  </si>
+  <si>
+    <t>asdhasdhasdhasd</t>
   </si>
 </sst>
 </file>
@@ -344,17 +359,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
